--- a/INTLINE/data/924/NBS/Total Population.xlsx
+++ b/INTLINE/data/924/NBS/Total Population.xlsx
@@ -1,37 +1,282 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NBS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1987</t>
+  </si>
+  <si>
+    <t>1986</t>
+  </si>
+  <si>
+    <t>1985</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>1975</t>
+  </si>
+  <si>
+    <t>1974</t>
+  </si>
+  <si>
+    <t>1973</t>
+  </si>
+  <si>
+    <t>1972</t>
+  </si>
+  <si>
+    <t>1971</t>
+  </si>
+  <si>
+    <t>1970</t>
+  </si>
+  <si>
+    <t>1969</t>
+  </si>
+  <si>
+    <t>1968</t>
+  </si>
+  <si>
+    <t>1967</t>
+  </si>
+  <si>
+    <t>1966</t>
+  </si>
+  <si>
+    <t>1965</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1963</t>
+  </si>
+  <si>
+    <t>1962</t>
+  </si>
+  <si>
+    <t>1961</t>
+  </si>
+  <si>
+    <t>1960</t>
+  </si>
+  <si>
+    <t>1959</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>1957</t>
+  </si>
+  <si>
+    <t>1956</t>
+  </si>
+  <si>
+    <t>1955</t>
+  </si>
+  <si>
+    <t>1954</t>
+  </si>
+  <si>
+    <t>1953</t>
+  </si>
+  <si>
+    <t>1952</t>
+  </si>
+  <si>
+    <t>1951</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1949</t>
+  </si>
+  <si>
+    <t>Indicators</t>
+  </si>
+  <si>
+    <t>Total Population (year-end)(10000 persons)</t>
+  </si>
+  <si>
+    <t>Male Population(10000 persons)</t>
+  </si>
+  <si>
+    <t>Female Population(10000 persons)</t>
+  </si>
+  <si>
+    <t>Urban Population(10000 persons)</t>
+  </si>
+  <si>
+    <t>Rural Population(10000 persons)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +291,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +310,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,1522 +607,1358 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Indicators</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>1959</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>1958</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>1957</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>1956</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>1955</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>1954</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>1953</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>1952</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>1951</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>1950</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>1949</t>
-        </is>
+    <row r="1" spans="1:74">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Total Population (year-end)(10000 persons)</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:74">
+      <c r="A2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2">
         <v>141260</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>141212</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>141008</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>140541</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>140011</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>139232</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>138326</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>137646</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>136726</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>135922</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>134916</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>134091</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>133450</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>132802</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>132129</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>131448</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>130756</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>129988</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>129227</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>128453</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>127627</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>126743</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>125786</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>124761</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>123626</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>122389</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>121121</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>119850</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>118517</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>117171</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>115823</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>114333</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>112704</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>111026</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>109300</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>107507</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>105851</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>104357</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>103008</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>101654</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>100072</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>98705</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>97542</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>96259</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>94974</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>93717</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>92420</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>90859</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>89211</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>87177</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>85229</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>82992</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>80671</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>78534</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>76368</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>74542</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>72538</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>70499</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>69172</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>67296</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>65859</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>66207</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>67207</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>65994</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>64653</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>62828</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>61465</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>60266</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>58796</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>57482</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>56300</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>55196</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>54167</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Male Population(10000 persons)</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:74">
+      <c r="A3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3">
         <v>72311</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>72357</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>72039</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>71864</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>71650</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>71307</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>70857</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>70522</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>70063</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>69660</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>69161</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>68748</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>68647</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>68357</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>68048</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>67728</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>67375</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>66976</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>66556</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>66115</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>65672</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>65437</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>64692</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>63940</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>63131</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>62200</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>61808</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>61246</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>60472</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>59811</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>59466</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>58904</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>58099</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>57201</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>56290</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>55581</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>54725</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>53848</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>53152</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>52352</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>51519</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>50785</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>50192</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>49567</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>48908</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>48257</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>47564</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>46727</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>45876</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>44813</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>43819</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>42686</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>41289</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>40226</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>39115</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>38189</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>37128</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>36142</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>35533</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>34517</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>33880</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>34283</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>34890</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>34195</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>33469</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>32536</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>31809</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>31242</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>30468</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>29833</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>29231</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>28669</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>28145</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Female Population(10000 persons)</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:74">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4">
         <v>68949</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>68855</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>68969</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>68677</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>68361</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>67925</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>67469</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>67124</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>66663</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>66262</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>65755</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>65343</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>64803</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>64445</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>64081</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>63720</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>63381</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>63012</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>62671</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>62338</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>61955</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>61306</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>61094</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>60821</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>60495</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>60189</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>59313</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>58604</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>58045</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>57360</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>56357</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>55429</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>54605</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>53825</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>53010</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>51926</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>51126</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>50509</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>49856</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>49302</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>48553</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>47920</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>47350</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>46692</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>46066</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>45460</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>44856</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>44132</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>43335</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>42364</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>41410</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>40306</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>39382</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>38308</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>37253</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>36353</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>35410</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>34357</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>33639</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>32778</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>31979</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>31924</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>32317</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>31799</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>31184</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>30292</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>29656</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>29024</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>28328</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>27649</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>27069</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>26527</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>26022</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Urban Population(10000 persons)</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:74">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
         <v>91425</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>90220</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>88426</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>86433</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>84343</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>81924</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>79302</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>76738</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>74502</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>72175</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>69927</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>66978</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>64512</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>62403</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>60633</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>58288</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>56212</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>54283</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>52376</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>50212</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>48064</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>45906</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>43748</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>41608</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>39449</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>37304</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>35174</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>34169</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>33173</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>32175</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>31203</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>30195</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>29540</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>28661</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>27674</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>26366</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>25094</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>24017</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>22274</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>21480</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>20171</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>19140</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>18495</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>17245</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>16669</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>16341</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>16030</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>15595</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>15345</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>14935</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>14711</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>14424</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>14117</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>13838</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>13548</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>13313</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>13045</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>12950</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>11646</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>11659</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>12707</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>13073</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>12371</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>10721</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>9949</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>9185</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>8285</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>8249</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>7826</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>7163</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>6632</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>6169</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>5765</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Rural Population(10000 persons)</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:74">
+      <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6">
         <v>49835</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>50992</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>52582</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>54108</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>55668</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>57308</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>59024</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>60908</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>62224</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>63747</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>64989</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>67113</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>68938</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>70399</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>71496</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>73160</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>74544</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>75705</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>76851</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>78241</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>79563</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>80837</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>82038</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>83153</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>84177</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>85085</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>85947</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>85681</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>85344</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>84996</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>84620</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>84138</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>83164</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>82365</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>81626</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>81141</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>80757</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>80340</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>80734</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>80174</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>79901</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>79565</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>79047</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>79014</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>78305</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>77376</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>76390</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>75264</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>73866</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>72242</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>70518</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>68568</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>66554</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>64696</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>62820</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>61229</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>59493</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>57549</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>57526</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>55636</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>53152</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>53134</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>54836</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>55273</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>54704</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>53643</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>53180</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>52017</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>50970</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>50319</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>49668</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>49027</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>48402</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/924/NBS/Total Population.xlsx
+++ b/INTLINE/data/924/NBS/Total Population.xlsx
@@ -1,282 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="NBS" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NBS" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1999</t>
-  </si>
-  <si>
-    <t>1998</t>
-  </si>
-  <si>
-    <t>1997</t>
-  </si>
-  <si>
-    <t>1996</t>
-  </si>
-  <si>
-    <t>1995</t>
-  </si>
-  <si>
-    <t>1994</t>
-  </si>
-  <si>
-    <t>1993</t>
-  </si>
-  <si>
-    <t>1992</t>
-  </si>
-  <si>
-    <t>1991</t>
-  </si>
-  <si>
-    <t>1990</t>
-  </si>
-  <si>
-    <t>1989</t>
-  </si>
-  <si>
-    <t>1988</t>
-  </si>
-  <si>
-    <t>1987</t>
-  </si>
-  <si>
-    <t>1986</t>
-  </si>
-  <si>
-    <t>1985</t>
-  </si>
-  <si>
-    <t>1984</t>
-  </si>
-  <si>
-    <t>1983</t>
-  </si>
-  <si>
-    <t>1982</t>
-  </si>
-  <si>
-    <t>1981</t>
-  </si>
-  <si>
-    <t>1980</t>
-  </si>
-  <si>
-    <t>1979</t>
-  </si>
-  <si>
-    <t>1978</t>
-  </si>
-  <si>
-    <t>1977</t>
-  </si>
-  <si>
-    <t>1976</t>
-  </si>
-  <si>
-    <t>1975</t>
-  </si>
-  <si>
-    <t>1974</t>
-  </si>
-  <si>
-    <t>1973</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>1971</t>
-  </si>
-  <si>
-    <t>1970</t>
-  </si>
-  <si>
-    <t>1969</t>
-  </si>
-  <si>
-    <t>1968</t>
-  </si>
-  <si>
-    <t>1967</t>
-  </si>
-  <si>
-    <t>1966</t>
-  </si>
-  <si>
-    <t>1965</t>
-  </si>
-  <si>
-    <t>1964</t>
-  </si>
-  <si>
-    <t>1963</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>1961</t>
-  </si>
-  <si>
-    <t>1960</t>
-  </si>
-  <si>
-    <t>1959</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>1957</t>
-  </si>
-  <si>
-    <t>1956</t>
-  </si>
-  <si>
-    <t>1955</t>
-  </si>
-  <si>
-    <t>1954</t>
-  </si>
-  <si>
-    <t>1953</t>
-  </si>
-  <si>
-    <t>1952</t>
-  </si>
-  <si>
-    <t>1951</t>
-  </si>
-  <si>
-    <t>1950</t>
-  </si>
-  <si>
-    <t>1949</t>
-  </si>
-  <si>
-    <t>Indicators</t>
-  </si>
-  <si>
-    <t>Total Population (year-end)(10000 persons)</t>
-  </si>
-  <si>
-    <t>Male Population(10000 persons)</t>
-  </si>
-  <si>
-    <t>Female Population(10000 persons)</t>
-  </si>
-  <si>
-    <t>Urban Population(10000 persons)</t>
-  </si>
-  <si>
-    <t>Rural Population(10000 persons)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -291,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -310,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -607,1358 +353,1522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:74">
-      <c r="A1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Indicators</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>1985</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>1983</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>1981</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>1980</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>1978</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>1977</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>1976</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>1973</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>1971</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>1970</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>1969</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>1967</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>1964</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>1963</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>1962</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>1959</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>1958</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>1955</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>1951</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>1949</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:74">
-      <c r="A2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Total Population (year-end)(10000 persons)</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>141260</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>141212</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>141008</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>140541</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>140011</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>139232</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>138326</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>137646</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>136726</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>135922</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>134916</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>134091</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>133450</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>132802</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>132129</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>131448</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>130756</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>129988</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>129227</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>128453</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>127627</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>126743</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>125786</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>124761</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>123626</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>122389</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>121121</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>119850</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>118517</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>117171</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>115823</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>114333</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>112704</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>111026</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>109300</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>107507</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>105851</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>104357</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>103008</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>101654</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>100072</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>98705</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>97542</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>96259</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>94974</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>93717</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>92420</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>90859</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>89211</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>87177</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>85229</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>82992</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>80671</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>78534</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>76368</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>74542</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>72538</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>70499</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>69172</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>67296</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>65859</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>66207</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>67207</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>65994</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>64653</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>62828</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>61465</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>60266</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>58796</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>57482</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>56300</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>55196</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>54167</v>
       </c>
     </row>
-    <row r="3" spans="1:74">
-      <c r="A3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Male Population(10000 persons)</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>72311</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>72357</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>72039</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>71864</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>71650</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>71307</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>70857</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>70522</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>70063</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>69660</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>69161</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>68748</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>68647</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>68357</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>68048</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>67728</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>67375</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>66976</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>66556</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>66115</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>65672</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>65437</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>64692</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>63940</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>63131</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>62200</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>61808</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>61246</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>60472</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>59811</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>59466</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>58904</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>58099</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>57201</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>56290</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>55581</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>54725</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>53848</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>53152</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>52352</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>51519</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>50785</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>50192</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>49567</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>48908</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>48257</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>47564</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>46727</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>45876</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>44813</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>43819</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>42686</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>41289</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>40226</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>39115</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>38189</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>37128</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>36142</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>35533</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>34517</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>33880</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>34283</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>34890</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>34195</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>33469</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>32536</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>31809</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>31242</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>30468</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>29833</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>29231</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>28669</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>28145</v>
       </c>
     </row>
-    <row r="4" spans="1:74">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Female Population(10000 persons)</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>68949</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>68855</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>68969</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>68677</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>68361</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>67925</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>67469</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>67124</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>66663</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>66262</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>65755</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>65343</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>64803</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>64445</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>64081</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>63720</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>63381</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>63012</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>62671</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>62338</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>61955</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>61306</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>61094</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>60821</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>60495</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>60189</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>59313</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>58604</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>58045</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>57360</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>56357</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>55429</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>54605</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>53825</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>53010</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>51926</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>51126</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>50509</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>49856</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>49302</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>48553</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>47920</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>47350</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>46692</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>46066</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>45460</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>44856</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>44132</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>43335</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>42364</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>41410</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>40306</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>39382</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>38308</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>37253</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>36353</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>35410</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>34357</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>33639</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>32778</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>31979</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>31924</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>32317</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>31799</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>31184</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>30292</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>29656</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>29024</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>28328</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>27649</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>27069</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>26527</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>26022</v>
       </c>
     </row>
-    <row r="5" spans="1:74">
-      <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Urban Population(10000 persons)</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>91425</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>90220</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>88426</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>86433</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>84343</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>81924</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>79302</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>76738</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>74502</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>72175</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>69927</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>66978</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>64512</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>62403</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>60633</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>58288</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>56212</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>54283</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>52376</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>50212</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>48064</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>45906</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>43748</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>41608</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>39449</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>37304</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>35174</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>34169</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>33173</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>32175</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>31203</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>30195</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>29540</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>28661</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>27674</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>26366</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>25094</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>24017</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>22274</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>21480</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>20171</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>19140</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>18495</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>17245</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>16669</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>16341</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>16030</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>15595</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>15345</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>14935</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>14711</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>14424</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>14117</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>13838</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>13548</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>13313</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>13045</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>12950</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>11646</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>11659</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>12707</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>13073</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>12371</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>10721</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>9949</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>9185</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>8285</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>8249</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>7826</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>7163</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>6632</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>6169</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>5765</v>
       </c>
     </row>
-    <row r="6" spans="1:74">
-      <c r="A6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Rural Population(10000 persons)</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>49835</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>50992</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>52582</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>54108</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>55668</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>57308</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>59024</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>60908</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>62224</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>63747</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>64989</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>67113</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>68938</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>70399</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>71496</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>73160</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>74544</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>75705</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>76851</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>78241</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>79563</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>80837</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>82038</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>83153</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>84177</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>85085</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>85947</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>85681</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>85344</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>84996</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>84620</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>84138</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>83164</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>82365</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>81626</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>81141</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>80757</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>80340</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>80734</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>80174</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>79901</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>79565</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>79047</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>79014</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>78305</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>77376</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>76390</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>75264</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>73866</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>72242</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>70518</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>68568</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>66554</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>64696</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>62820</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>61229</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>59493</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>57549</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>57526</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>55636</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>53152</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>53134</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>54836</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>55273</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>54704</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>53643</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>53180</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>52017</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>50970</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>50319</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>49668</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>49027</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>48402</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>